--- a/medicine/Enfance/Evelio_Rosero/Evelio_Rosero.xlsx
+++ b/medicine/Enfance/Evelio_Rosero/Evelio_Rosero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evelio José Rosero Diago, né le 20 mars 1958 (66 ans) à Bogota, est un écrivain colombien.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman
-El eterno monólogo de Llo (roman poème), 1981
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>El eterno monólogo de Llo (roman poème), 1981
 Mateo solo, 1984
 Juliana los mira, 1987
 El incendiado, 1988
@@ -550,19 +569,121 @@
 Plutón, Espasa-Calpe, Madrid. 2000
 Los almuerzos, 2001
 En el lejero, 2003
-Los ejércitos, 2006[1]
+Los ejércitos, 2006
 - traduit en français sous le titre Les Armées par François Gaudry, Paris, Éditions Métailié, coll. « Bibliothèque Hispano-Américaine », 2008, 155 p.  (ISBN 978-2-86424-659-6)
 La carroza de Bolívar, 2012
-- Prix national colombien du livre[2]
+- Prix national colombien du livre
 - traduit en français sous le titre Le Carnaval des innocents par François Gaudry, Paris, Éditions Métailié, coll. « Bibliothèque Hispano-Américaine », 2016, 308 p.  (ISBN 979-10-226-0170-2)
-Plegaria por un papa envenenado, 2014
-Conte
-Cuento para matar a un perro (y otros cuentos), 1989
-34 cuentos cortos y un gatopájaro, 2013
-Poésie
-Las lunas de Chía, 2004
-Jeunesse
-El trompetista sin zapatos y otros cuentos para poco antes de dormir, 1990
+Plegaria por un papa envenenado, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evelio_Rosero</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evelio_Rosero</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Conte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cuento para matar a un perro (y otros cuentos), 1989
+34 cuentos cortos y un gatopájaro, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Evelio_Rosero</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evelio_Rosero</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Las lunas de Chía, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Evelio_Rosero</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evelio_Rosero</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>El trompetista sin zapatos y otros cuentos para poco antes de dormir, 1990
 Pelea en el parque, 1991
 El aprendiz de mago, 1992
 El capitán de las tres cabezas, 1995
